--- a/rm/test/resources/test_upload_valid_negometrix_excel_file_2_valid_rows_1_invalid_row.xlsx
+++ b/rm/test/resources/test_upload_valid_negometrix_excel_file_2_valid_rows_1_invalid_row.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t xml:space="preserve">Database nr.</t>
   </si>
@@ -130,22 +130,31 @@
     <t xml:space="preserve">Contract 1 beschr</t>
   </si>
   <si>
-    <t xml:space="preserve">Maandelijkse Facturatie a €221,34I = geschatte éénmalige investeringskosten n.v.t.Y = aantal jaren looptijd overeenkomstX = geschatte jaarlijkse kosten</t>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">NPO/Technology/IAAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Bart Adriaanse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bart.adriaanse@npo.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 677 8899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRO-NCRV(AKN)-mw/0211/016 Colo remote extra 1 Gb koppeling</t>
+    <t xml:space="preserve">Eelco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eelco@aeset.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-234234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietje Puk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.puk@npo.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">066-345345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezemstelen IIII </t>
   </si>
   <si>
     <t xml:space="preserve">Ja</t>
@@ -160,7 +169,13 @@
     <t xml:space="preserve">Contract 2 beschr</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">44337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
 </sst>
 </file>
@@ -172,7 +187,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -197,6 +212,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -251,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +287,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI3" activeCellId="0" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +332,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.5"/>
@@ -413,7 +441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -435,13 +463,13 @@
       <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K2" s="3"/>
@@ -451,54 +479,54 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="5" t="n">
-        <v>2656</v>
+      <c r="R2" s="6" t="n">
+        <v>123000</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>37</v>
@@ -506,13 +534,13 @@
       <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K3" s="3"/>
@@ -522,56 +550,56 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="5" t="n">
-        <v>2656</v>
+      <c r="R3" s="6" t="n">
+        <v>123</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -579,13 +607,13 @@
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K4" s="3"/>
@@ -595,38 +623,38 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="5" t="n">
-        <v>2656</v>
+      <c r="R4" s="6" t="n">
+        <v>12321312</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
@@ -809,6 +837,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="eelco@aeset.nl"/>
+    <hyperlink ref="U2" r:id="rId2" display="p.puk@npo.nl"/>
+    <hyperlink ref="H3" r:id="rId3" display="eelco@aeset.nl"/>
+    <hyperlink ref="U3" r:id="rId4" display="p.puk@npo.nl"/>
+    <hyperlink ref="H4" r:id="rId5" display="eelco@aeset.nl"/>
+    <hyperlink ref="U4" r:id="rId6" display="p.puk@npo.nl"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
